--- a/Вектор развития ru-en 1.0 (54).xlsx
+++ b/Вектор развития ru-en 1.0 (54).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="615" windowWidth="20775" windowHeight="9600"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="Вектор_развития_ru_en" localSheetId="0">Лист1!$A$1:$G$688</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2397,15 +2397,6 @@
     <t>End of the day</t>
   </si>
   <si>
-    <t>restrict_delete_achievement_message</t>
-  </si>
-  <si>
-    <t>Невозможно удалить обязательные достижения</t>
-  </si>
-  <si>
-    <t>Failed to remove obligatory achievements</t>
-  </si>
-  <si>
     <t>intention_add_child_profile</t>
   </si>
   <si>
@@ -2895,9 +2886,6 @@
     <t>Много ли ребенок распознает известных предметов в достигаемой для него области (на полу, в манеже, в комнате)?</t>
   </si>
   <si>
-    <t>Расположены ли глаза ребенка по прямой линии в течение дня (отсутствие косоглазия)? Не косят ли глаза ребенка независимо от его состояния: усталость, болезнь, нервное возбуждение?</t>
-  </si>
-  <si>
     <t>Может ли ребенок находить различия у разных символов одного вида (например, различия в буквах, цифрах)?</t>
   </si>
   <si>
@@ -2908,12 +2896,6 @@
   </si>
   <si>
     <t>Does your child know letters and numbers?</t>
-  </si>
-  <si>
-    <t>Ребенок читает без затруднений и может объяснить прочитанное?</t>
-  </si>
-  <si>
-    <t>Does the child have any difficulty reading? Can they explain what they have just read?</t>
   </si>
   <si>
     <t>mental_audition_stages</t>
@@ -4765,9 +4747,6 @@
     <t>Does your child follow a person’s movements or a beam of light in the dark with his eyes?</t>
   </si>
   <si>
-    <t>Do your child’s eyes properly align with each other in the daytime? Any signs of strabismus (cross-eye) unrelated to his condition like being tired, sick or anxious?</t>
-  </si>
-  <si>
     <t>Does your child’s arms and back remain bent during bathing or changing diapers?</t>
   </si>
   <si>
@@ -4967,6 +4946,27 @@
   </si>
   <si>
     <t>Events of the linear group come to the end %s.\n\nExtend for</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>Расположены ли глаза ребенка по прямой линии в течение дня, независимо от его состояния: будь то усталость, болезнь, нервное возбуждение (отсутствие косоглазия)?</t>
+  </si>
+  <si>
+    <t>Do your child’s eyes properly align with each other in the daytime unrelated to his condition like being tired, sick or anxious (cross-eye)?</t>
+  </si>
+  <si>
+    <t>Ребенок читает самостоятельно и может объяснить прочитанное.</t>
+  </si>
+  <si>
+    <t>The child doesn’t have any difficulty reading and they explain what they have just read.</t>
   </si>
 </sst>
 </file>
@@ -5454,9 +5454,7 @@
   </sheetPr>
   <dimension ref="A1:G689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="A292" sqref="A292:XFD292"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5500,7 +5498,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5512,7 +5510,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="E3" s="10" t="str">
         <f>IF(ISBLANK(C3),"","&lt;!-- "&amp;C3&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A3&amp;"""&gt;"&amp;D3&amp;"&lt;/string&gt;"</f>
@@ -5537,7 +5535,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>IF(ISBLANK(C4),"","&lt;!-- "&amp;C4&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A4&amp;"""&gt;"&amp;D4&amp;"&lt;/string&gt;"</f>
@@ -5548,7 +5546,7 @@
         <v>&lt;!-- \n - символ переноса строки --&gt;NEWLINE&lt;string name="app_name_splash"&gt;Вектор\nразвития&lt;/string&gt;</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5560,7 +5558,7 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="E5" s="10" t="str">
         <f t="shared" ref="E5:E70" si="1">IF(ISBLANK(C5),"","&lt;!-- "&amp;C5&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A5&amp;"""&gt;"&amp;D5&amp;"&lt;/string&gt;"</f>
@@ -5571,7 +5569,7 @@
         <v>&lt;string name="drawer_item_calendar"&gt;Календарь&lt;/string&gt;</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5583,7 +5581,7 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5594,7 +5592,7 @@
         <v>&lt;string name="drawer_item_development_diary"&gt;Дневник развития&lt;/string&gt;</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5606,7 +5604,7 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="E7" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5626,7 +5624,7 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="E8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5646,7 +5644,7 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="E9" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5666,7 +5664,7 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="E10" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5686,7 +5684,7 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="E11" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5706,7 +5704,7 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="E12" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5726,7 +5724,7 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="E13" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5746,7 +5744,7 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="E14" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5768,7 +5766,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="E15" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5788,7 +5786,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="E16" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5868,7 +5866,7 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="E20" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5881,14 +5879,14 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="E21" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5901,14 +5899,14 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="E22" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5928,7 +5926,7 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="E23" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5948,7 +5946,7 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="E24" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5968,7 +5966,7 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="E25" s="10" t="str">
         <f t="shared" si="1"/>
@@ -5988,7 +5986,7 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="E26" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6008,7 +6006,7 @@
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="E27" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6030,7 +6028,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="E28" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6070,7 +6068,7 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="E30" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6090,7 +6088,7 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="E31" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6110,7 +6108,7 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="E32" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6130,7 +6128,7 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="E33" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6170,7 +6168,7 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="E35" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6190,7 +6188,7 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="E36" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6210,7 +6208,7 @@
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="E37" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6250,7 +6248,7 @@
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="E39" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6290,7 +6288,7 @@
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="E41" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6590,7 +6588,7 @@
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="E56" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6610,7 +6608,7 @@
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="E57" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6830,7 +6828,7 @@
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="E68" s="10" t="str">
         <f t="shared" si="1"/>
@@ -6910,7 +6908,7 @@
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="E72" s="10" t="str">
         <f t="shared" si="3"/>
@@ -6950,7 +6948,7 @@
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="E74" s="10" t="str">
         <f t="shared" si="3"/>
@@ -6970,7 +6968,7 @@
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="E75" s="10" t="str">
         <f t="shared" si="3"/>
@@ -6990,7 +6988,7 @@
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="E76" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7010,7 +7008,7 @@
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="E77" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7030,7 +7028,7 @@
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="E78" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7050,7 +7048,7 @@
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="E79" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7070,7 +7068,7 @@
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="E80" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7090,7 +7088,7 @@
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="E81" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7110,7 +7108,7 @@
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="E82" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7130,7 +7128,7 @@
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="E83" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7150,7 +7148,7 @@
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="E84" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7170,7 +7168,7 @@
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="E85" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7190,7 +7188,7 @@
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="E86" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7210,7 +7208,7 @@
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="10" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="E87" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7230,7 +7228,7 @@
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="E88" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7250,7 +7248,7 @@
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="10" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="E89" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7270,7 +7268,7 @@
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="10" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="E90" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7290,7 +7288,7 @@
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="E91" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7310,7 +7308,7 @@
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="E92" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7330,7 +7328,7 @@
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="E93" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7350,7 +7348,7 @@
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="E94" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7370,7 +7368,7 @@
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="10" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="E95" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7390,7 +7388,7 @@
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="E96" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7430,7 +7428,7 @@
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="E98" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7450,7 +7448,7 @@
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="E99" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7490,7 +7488,7 @@
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7510,7 +7508,7 @@
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="E102" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7530,7 +7528,7 @@
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="E103" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7552,7 +7550,7 @@
         <v>242</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="E104" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7572,7 +7570,7 @@
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="10" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="E105" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7592,7 +7590,7 @@
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="E106" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7614,7 +7612,7 @@
         <v>249</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="E107" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7656,7 +7654,7 @@
         <v>255</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="E109" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7698,7 +7696,7 @@
         <v>261</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="E111" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7720,7 +7718,7 @@
         <v>264</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="E112" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7742,7 +7740,7 @@
         <v>267</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="E113" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7764,7 +7762,7 @@
         <v>270</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="E114" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7784,7 +7782,7 @@
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="10" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="E115" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7804,7 +7802,7 @@
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="10" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="E116" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7824,7 +7822,7 @@
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="E117" s="10" t="str">
         <f t="shared" si="3"/>
@@ -7984,7 +7982,7 @@
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="10" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="E125" s="10" t="str">
         <f t="shared" si="3"/>
@@ -8004,7 +8002,7 @@
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="10" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="E126" s="10" t="str">
         <f t="shared" si="3"/>
@@ -8104,7 +8102,7 @@
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="10" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="E131" s="10" t="str">
         <f t="shared" si="3"/>
@@ -8184,7 +8182,7 @@
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="10" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="E135" s="10" t="str">
         <f t="shared" ref="E135:E198" si="5">IF(ISBLANK(C135),"","&lt;!-- "&amp;C135&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A135&amp;"""&gt;"&amp;D135&amp;"&lt;/string&gt;"</f>
@@ -8264,7 +8262,7 @@
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="10" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="E139" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8504,7 +8502,7 @@
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="E151" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8686,7 +8684,7 @@
         <v>399</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="E160" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8708,7 +8706,7 @@
         <v>399</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="E161" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8764,11 +8762,11 @@
         <v>408</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="E164" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8784,11 +8782,11 @@
         <v>409</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="E165" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8804,11 +8802,11 @@
         <v>410</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="E166" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8824,11 +8822,11 @@
         <v>411</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="E167" s="10" t="str">
         <f t="shared" si="5"/>
@@ -8968,7 +8966,7 @@
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="10" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="E174" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9150,7 +9148,7 @@
         <v>458</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="E183" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9172,7 +9170,7 @@
         <v>461</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="E184" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9194,7 +9192,7 @@
         <v>464</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="E185" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9234,7 +9232,7 @@
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="10" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="E187" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9374,7 +9372,7 @@
       </c>
       <c r="C194" s="10"/>
       <c r="D194" s="10" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="E194" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9394,7 +9392,7 @@
       </c>
       <c r="C195" s="10"/>
       <c r="D195" s="10" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="E195" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9414,7 +9412,7 @@
       </c>
       <c r="C196" s="10"/>
       <c r="D196" s="10" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="E196" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9434,7 +9432,7 @@
       </c>
       <c r="C197" s="10"/>
       <c r="D197" s="10" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="E197" s="10" t="str">
         <f t="shared" si="5"/>
@@ -9514,7 +9512,7 @@
       </c>
       <c r="C201" s="10"/>
       <c r="D201" s="10" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="E201" s="10" t="str">
         <f t="shared" si="7"/>
@@ -9574,7 +9572,7 @@
       </c>
       <c r="C204" s="10"/>
       <c r="D204" s="10" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="E204" s="10" t="str">
         <f t="shared" si="7"/>
@@ -9614,7 +9612,7 @@
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="E206" s="10" t="str">
         <f t="shared" si="7"/>
@@ -9634,7 +9632,7 @@
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="10" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="E207" s="10" t="str">
         <f t="shared" si="7"/>
@@ -9674,7 +9672,7 @@
       </c>
       <c r="C209" s="10"/>
       <c r="D209" s="10" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="E209" s="10" t="str">
         <f t="shared" si="7"/>
@@ -9694,7 +9692,7 @@
       </c>
       <c r="C210" s="10"/>
       <c r="D210" s="10" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="E210" s="10" t="str">
         <f t="shared" si="7"/>
@@ -9714,7 +9712,7 @@
       </c>
       <c r="C211" s="10"/>
       <c r="D211" s="10" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="E211" s="10" t="str">
         <f t="shared" si="7"/>
@@ -9730,11 +9728,11 @@
         <v>532</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="C212" s="10"/>
       <c r="D212" s="10" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="E212" s="10" t="str">
         <f t="shared" si="7"/>
@@ -9754,7 +9752,7 @@
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="10" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="E213" s="10" t="str">
         <f t="shared" si="7"/>
@@ -9794,7 +9792,7 @@
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="E215" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10199,7 +10197,7 @@
         <v>600</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="D235" s="10" t="s">
         <v>601</v>
@@ -10402,7 +10400,7 @@
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="E245" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10422,7 +10420,7 @@
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="10" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="E246" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10522,7 +10520,7 @@
       </c>
       <c r="C251" s="10"/>
       <c r="D251" s="10" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="E251" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10562,7 +10560,7 @@
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="10" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="E253" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10582,7 +10580,7 @@
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="10" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="E254" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10704,7 +10702,7 @@
         <v>671</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="E260" s="10" t="str">
         <f t="shared" si="7"/>
@@ -10924,7 +10922,7 @@
       </c>
       <c r="C271" s="10"/>
       <c r="D271" s="10" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="E271" s="10" t="str">
         <f t="shared" si="9"/>
@@ -10944,7 +10942,7 @@
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="10" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="E272" s="10" t="str">
         <f t="shared" si="9"/>
@@ -11004,7 +11002,7 @@
       </c>
       <c r="C275" s="10"/>
       <c r="D275" s="10" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="E275" s="10" t="str">
         <f t="shared" si="9"/>
@@ -11024,7 +11022,7 @@
       </c>
       <c r="C276" s="10"/>
       <c r="D276" s="10" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="E276" s="10" t="str">
         <f t="shared" si="9"/>
@@ -11164,7 +11162,7 @@
       </c>
       <c r="C283" s="10"/>
       <c r="D283" s="10" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="E283" s="10" t="str">
         <f t="shared" si="9"/>
@@ -11575,7 +11573,7 @@
         <v>&lt;string name="day_finish"&gt;Конец дня&lt;/string&gt;</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
         <v>792</v>
       </c>
@@ -11588,11 +11586,11 @@
       </c>
       <c r="E304" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;string name="restrict_delete_achievement_message"&gt;Failed to remove obligatory achievements&lt;/string&gt;</v>
+        <v>&lt;string name="intention_add_child_profile"&gt;Add child’s profile&lt;/string&gt;</v>
       </c>
       <c r="F304" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;string name="restrict_delete_achievement_message"&gt;Невозможно удалить обязательные достижения&lt;/string&gt;</v>
+        <v>&lt;string name="intention_add_child_profile"&gt;Добавьте профиль ребенка&lt;/string&gt;</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11608,11 +11606,11 @@
       </c>
       <c r="E305" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;string name="intention_add_child_profile"&gt;Add child’s profile&lt;/string&gt;</v>
+        <v>&lt;string name="app_intro_calendar"&gt;Plan your time and follow the child development&lt;/string&gt;</v>
       </c>
       <c r="F305" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;string name="intention_add_child_profile"&gt;Добавьте профиль ребенка&lt;/string&gt;</v>
+        <v>&lt;string name="app_intro_calendar"&gt;Планируйте время и следите за развитием ребенка&lt;/string&gt;</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11628,11 +11626,11 @@
       </c>
       <c r="E306" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;string name="app_intro_calendar"&gt;Plan your time and follow the child development&lt;/string&gt;</v>
+        <v>&lt;string name="app_intro_achievements"&gt;Save important events of child development&lt;/string&gt;</v>
       </c>
       <c r="F306" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;string name="app_intro_calendar"&gt;Планируйте время и следите за развитием ребенка&lt;/string&gt;</v>
+        <v>&lt;string name="app_intro_achievements"&gt;Сохраняйте важные события развития ребенка&lt;/string&gt;</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11644,77 +11642,77 @@
       </c>
       <c r="C307" s="10"/>
       <c r="D307" s="10" t="s">
-        <v>803</v>
+        <v>1572</v>
       </c>
       <c r="E307" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;string name="app_intro_achievements"&gt;Save important events of child development&lt;/string&gt;</v>
+        <v>&lt;string name="app_intro_doctor_visits"&gt;Use notifications and remember about doctor’s appointments&lt;/string&gt;</v>
       </c>
       <c r="F307" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;string name="app_intro_achievements"&gt;Сохраняйте важные события развития ребенка&lt;/string&gt;</v>
+        <v>&lt;string name="app_intro_doctor_visits"&gt;Используйте оповещения и помните о визитах к врачу&lt;/string&gt;</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="B308" s="10" t="s">
         <v>804</v>
-      </c>
-      <c r="B308" s="10" t="s">
-        <v>805</v>
       </c>
       <c r="C308" s="10"/>
       <c r="D308" s="10" t="s">
-        <v>1578</v>
+        <v>805</v>
       </c>
       <c r="E308" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;string name="app_intro_doctor_visits"&gt;Use notifications and remember about doctor’s appointments&lt;/string&gt;</v>
+        <v>&lt;string name="app_intro_charts"&gt;Watch schedule reports about child development&lt;/string&gt;</v>
       </c>
       <c r="F308" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;string name="app_intro_doctor_visits"&gt;Используйте оповещения и помните о визитах к врачу&lt;/string&gt;</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>&lt;string name="app_intro_charts"&gt;Смотрите графики-отчеты о развитии ребенка&lt;/string&gt;</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
         <v>806</v>
       </c>
       <c r="B309" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="C309" s="10"/>
+      <c r="C309" s="10" t="s">
+        <v>808</v>
+      </c>
       <c r="D309" s="10" t="s">
-        <v>808</v>
+        <v>1548</v>
       </c>
       <c r="E309" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;string name="app_intro_charts"&gt;Watch schedule reports about child development&lt;/string&gt;</v>
+        <v>&lt;!-- %1$d - число, номер вопроса, %2$d - число, количество вопросов --&gt;NEWLINE&lt;string name="question_format"&gt;%1$d from %2$d&lt;/string&gt;</v>
       </c>
       <c r="F309" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;string name="app_intro_charts"&gt;Смотрите графики-отчеты о развитии ребенка&lt;/string&gt;</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>&lt;!-- %1$d - число, номер вопроса, %2$d - число, количество вопросов --&gt;NEWLINE&lt;string name="question_format"&gt;%1$d из %2$d&lt;/string&gt;</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
         <v>809</v>
       </c>
       <c r="B310" s="10" t="s">
         <v>810</v>
       </c>
-      <c r="C310" s="10" t="s">
+      <c r="C310" s="10"/>
+      <c r="D310" s="10" t="s">
         <v>811</v>
-      </c>
-      <c r="D310" s="10" t="s">
-        <v>1554</v>
       </c>
       <c r="E310" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;!-- %1$d - число, номер вопроса, %2$d - число, количество вопросов --&gt;NEWLINE&lt;string name="question_format"&gt;%1$d from %2$d&lt;/string&gt;</v>
+        <v>&lt;string name="dont_notify"&gt;Do not inform&lt;/string&gt;</v>
       </c>
       <c r="F310" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;!-- %1$d - число, номер вопроса, %2$d - число, количество вопросов --&gt;NEWLINE&lt;string name="question_format"&gt;%1$d из %2$d&lt;/string&gt;</v>
+        <v>&lt;string name="dont_notify"&gt;Не оповещать&lt;/string&gt;</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -11730,11 +11728,11 @@
       </c>
       <c r="E311" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;string name="dont_notify"&gt;Do not inform&lt;/string&gt;</v>
+        <v>&lt;string name="vibration"&gt;Vibration&lt;/string&gt;</v>
       </c>
       <c r="F311" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;string name="dont_notify"&gt;Не оповещать&lt;/string&gt;</v>
+        <v>&lt;string name="vibration"&gt;Вибрация&lt;/string&gt;</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -11750,14 +11748,14 @@
       </c>
       <c r="E312" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;string name="vibration"&gt;Vibration&lt;/string&gt;</v>
+        <v>&lt;string name="in_the_moment"&gt;At the time of the event&lt;/string&gt;</v>
       </c>
       <c r="F312" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;string name="vibration"&gt;Вибрация&lt;/string&gt;</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;string name="in_the_moment"&gt;В момент события&lt;/string&gt;</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
         <v>818</v>
       </c>
@@ -11770,14 +11768,14 @@
       </c>
       <c r="E313" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;string name="in_the_moment"&gt;At the time of the event&lt;/string&gt;</v>
+        <v>&lt;string name="notification_sound"&gt;Melody&lt;/string&gt;</v>
       </c>
       <c r="F313" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;string name="in_the_moment"&gt;В момент события&lt;/string&gt;</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>&lt;string name="notification_sound"&gt;Мелодия&lt;/string&gt;</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>821</v>
       </c>
@@ -11790,11 +11788,11 @@
       </c>
       <c r="E314" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;string name="notification_sound"&gt;Melody&lt;/string&gt;</v>
+        <v>&lt;string name="select_sound"&gt;Select melody&lt;/string&gt;</v>
       </c>
       <c r="F314" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;string name="notification_sound"&gt;Мелодия&lt;/string&gt;</v>
+        <v>&lt;string name="select_sound"&gt;Выберите мелодию&lt;/string&gt;</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -11810,14 +11808,14 @@
       </c>
       <c r="E315" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;string name="select_sound"&gt;Select melody&lt;/string&gt;</v>
+        <v>&lt;string name="default_sound"&gt;By default&lt;/string&gt;</v>
       </c>
       <c r="F315" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;string name="select_sound"&gt;Выберите мелодию&lt;/string&gt;</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;string name="default_sound"&gt;По умолчанию&lt;/string&gt;</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
         <v>827</v>
       </c>
@@ -11830,11 +11828,11 @@
       </c>
       <c r="E316" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;string name="default_sound"&gt;By default&lt;/string&gt;</v>
+        <v>&lt;string name="linear_group_finished_notification_title"&gt;Extend events?&lt;/string&gt;</v>
       </c>
       <c r="F316" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;string name="default_sound"&gt;По умолчанию&lt;/string&gt;</v>
+        <v>&lt;string name="linear_group_finished_notification_title"&gt;Продлить события?&lt;/string&gt;</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -11844,59 +11842,61 @@
       <c r="B317" s="10" t="s">
         <v>831</v>
       </c>
-      <c r="C317" s="10"/>
+      <c r="C317" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="D317" s="10" t="s">
-        <v>832</v>
+        <v>1641</v>
       </c>
       <c r="E317" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;string name="linear_group_finished_notification_title"&gt;Extend events?&lt;/string&gt;</v>
+        <v>&lt;!-- \n - символ переноса строки --&gt;NEWLINE&lt;string name="linear_group_finished_dialog_description"&gt;Events of the linear group come to the end %s.\n\nExtend for&lt;/string&gt;</v>
       </c>
       <c r="F317" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;string name="linear_group_finished_notification_title"&gt;Продлить события?&lt;/string&gt;</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>&lt;!-- \n - символ переноса строки --&gt;NEWLINE&lt;string name="linear_group_finished_dialog_description"&gt;Завершаются события линейной группы %s.\n\nПродлить на:&lt;/string&gt;</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B318" s="10" t="s">
         <v>833</v>
       </c>
-      <c r="B318" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="C318" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="C318" s="10"/>
       <c r="D318" s="10" t="s">
-        <v>1648</v>
+        <v>1549</v>
       </c>
       <c r="E318" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;!-- \n - символ переноса строки --&gt;NEWLINE&lt;string name="linear_group_finished_dialog_description"&gt;Events of the linear group come to the end %s.\n\nExtend for&lt;/string&gt;</v>
+        <v>&lt;string name="contact_us"&gt;Contact us&lt;/string&gt;</v>
       </c>
       <c r="F318" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;!-- \n - символ переноса строки --&gt;NEWLINE&lt;string name="linear_group_finished_dialog_description"&gt;Завершаются события линейной группы %s.\n\nПродлить на:&lt;/string&gt;</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;string name="contact_us"&gt;Свяжитесь с нами&lt;/string&gt;</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="B319" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="B319" s="10" t="s">
+      <c r="C319" s="10" t="s">
         <v>836</v>
       </c>
-      <c r="C319" s="10"/>
       <c r="D319" s="10" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="E319" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;string name="contact_us"&gt;Contact us&lt;/string&gt;</v>
+        <v>&lt;!-- %s - строка, ссылка на сайт --&gt;NEWLINE&lt;string name="site_format"&gt;Site: %s&lt;/string&gt;</v>
       </c>
       <c r="F319" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;string name="contact_us"&gt;Свяжитесь с нами&lt;/string&gt;</v>
+        <v>&lt;!-- %s - строка, ссылка на сайт --&gt;NEWLINE&lt;string name="site_format"&gt;Сайт: %s&lt;/string&gt;</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -11910,42 +11910,40 @@
         <v>839</v>
       </c>
       <c r="D320" s="10" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="E320" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;!-- %s - строка, ссылка на сайт --&gt;NEWLINE&lt;string name="site_format"&gt;Site: %s&lt;/string&gt;</v>
+        <v>&lt;!-- %s - строка, ссылка на эл. почту --&gt;NEWLINE&lt;string name="email_format"&gt;E-mail: %s&lt;/string&gt;</v>
       </c>
       <c r="F320" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;!-- %s - строка, ссылка на сайт --&gt;NEWLINE&lt;string name="site_format"&gt;Сайт: %s&lt;/string&gt;</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>&lt;!-- %s - строка, ссылка на эл. почту --&gt;NEWLINE&lt;string name="email_format"&gt;Эл. почта: %s&lt;/string&gt;</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
-        <v>840</v>
+        <v>1642</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="C321" s="10" t="s">
-        <v>842</v>
-      </c>
+        <v>1644</v>
+      </c>
+      <c r="C321" s="10"/>
       <c r="D321" s="10" t="s">
-        <v>1557</v>
+        <v>1643</v>
       </c>
       <c r="E321" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>&lt;!-- %s - строка, ссылка на эл. почту --&gt;NEWLINE&lt;string name="email_format"&gt;E-mail: %s&lt;/string&gt;</v>
+        <v>&lt;string name="category"&gt;Category&lt;/string&gt;</v>
       </c>
       <c r="F321" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>&lt;!-- %s - строка, ссылка на эл. почту --&gt;NEWLINE&lt;string name="email_format"&gt;Эл. почта: %s&lt;/string&gt;</v>
+        <v>&lt;string name="category"&gt;Категория&lt;/string&gt;</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -11955,7 +11953,7 @@
     </row>
     <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="9" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B323" s="10"/>
       <c r="C323" s="10"/>
@@ -11971,14 +11969,14 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B324" s="10" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C324" s="10"/>
       <c r="D324" s="10" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E324" s="10" t="str">
         <f>IF(ISBLANK(C324),"","&lt;!-- "&amp;C324&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D324&amp;"&lt;/item&gt;"</f>
@@ -11991,14 +11989,14 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="B325" s="10" t="s">
         <v>845</v>
-      </c>
-      <c r="B325" s="10" t="s">
-        <v>848</v>
       </c>
       <c r="C325" s="10"/>
       <c r="D325" s="10" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E325" s="10" t="str">
         <f t="shared" ref="E325:E349" si="10">IF(ISBLANK(C325),"","&lt;!-- "&amp;C325&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D325&amp;"&lt;/item&gt;"</f>
@@ -12011,14 +12009,14 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B326" s="10" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C326" s="10"/>
       <c r="D326" s="10" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E326" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12031,14 +12029,14 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B327" s="10" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C327" s="10"/>
       <c r="D327" s="10" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E327" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12051,14 +12049,14 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B328" s="10" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C328" s="10"/>
       <c r="D328" s="10" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E328" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12071,14 +12069,14 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B329" s="10" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C329" s="10"/>
       <c r="D329" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E329" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12091,14 +12089,14 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B330" s="10" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C330" s="10"/>
       <c r="D330" s="10" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E330" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12111,14 +12109,14 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B331" s="10" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C331" s="10"/>
       <c r="D331" s="10" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E331" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12131,14 +12129,14 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B332" s="10" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C332" s="10"/>
       <c r="D332" s="10" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E332" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12151,14 +12149,14 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B333" s="10" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C333" s="10"/>
       <c r="D333" s="10" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E333" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12171,14 +12169,14 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C334" s="10"/>
       <c r="D334" s="10" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E334" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12191,14 +12189,14 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B335" s="10" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C335" s="10"/>
       <c r="D335" s="10" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E335" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12211,21 +12209,21 @@
     </row>
     <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="9" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B336" s="10"/>
       <c r="C336" s="10"/>
       <c r="D336" s="10"/>
       <c r="E336" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F336" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="9" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B337" s="10"/>
       <c r="C337" s="10"/>
@@ -12241,14 +12239,14 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C338" s="10"/>
       <c r="D338" s="10" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E338" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12261,14 +12259,14 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B339" s="10" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C339" s="10"/>
       <c r="D339" s="10" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E339" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12281,14 +12279,14 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B340" s="10" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C340" s="10"/>
       <c r="D340" s="10" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E340" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12301,14 +12299,14 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B341" s="10" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C341" s="10"/>
       <c r="D341" s="10" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E341" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12321,14 +12319,14 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B342" s="10" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C342" s="10"/>
       <c r="D342" s="10" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E342" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12341,14 +12339,14 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B343" s="10" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C343" s="10"/>
       <c r="D343" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E343" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12361,14 +12359,14 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C344" s="10"/>
       <c r="D344" s="10" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E344" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12381,14 +12379,14 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B345" s="10" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C345" s="10"/>
       <c r="D345" s="10" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E345" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12401,14 +12399,14 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C346" s="10"/>
       <c r="D346" s="10" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E346" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12421,14 +12419,14 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B347" s="10" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C347" s="10"/>
       <c r="D347" s="10" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E347" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12441,14 +12439,14 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B348" s="10" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C348" s="10"/>
       <c r="D348" s="10" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E348" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12461,14 +12459,14 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B349" s="10" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C349" s="10"/>
       <c r="D349" s="10" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E349" s="10" t="str">
         <f t="shared" si="10"/>
@@ -12481,21 +12479,21 @@
     </row>
     <row r="350" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="9" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B350" s="10"/>
       <c r="C350" s="10"/>
       <c r="D350" s="10"/>
       <c r="E350" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F350" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -12505,11 +12503,11 @@
     </row>
     <row r="352" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A352" s="9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B352" s="10"/>
       <c r="C352" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D352" s="10"/>
       <c r="E352" s="10" t="str">
@@ -12523,16 +12521,16 @@
     </row>
     <row r="353" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="9" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B353" s="10" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D353" s="10" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="E353" s="10" t="str">
         <f>IF(ISBLANK(C353),"","&lt;!-- "&amp;C353&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A353&amp;"""&gt;"&amp;D353&amp;"&lt;/item&gt;"</f>
@@ -12545,16 +12543,16 @@
     </row>
     <row r="354" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A354" s="9" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B354" s="10" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D354" s="10" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="E354" s="10" t="str">
         <f t="shared" ref="E354:E357" si="13">IF(ISBLANK(C354),"","&lt;!-- "&amp;C354&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A354&amp;"""&gt;"&amp;D354&amp;"&lt;/item&gt;"</f>
@@ -12570,13 +12568,13 @@
         <v>130</v>
       </c>
       <c r="B355" s="10" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D355" s="10" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="E355" s="10" t="str">
         <f t="shared" si="13"/>
@@ -12589,16 +12587,16 @@
     </row>
     <row r="356" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A356" s="9" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B356" s="10" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C356" s="10" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D356" s="10" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="E356" s="10" t="str">
         <f t="shared" si="13"/>
@@ -12611,16 +12609,16 @@
     </row>
     <row r="357" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="9" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B357" s="10" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D357" s="10" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="E357" s="10" t="str">
         <f t="shared" si="13"/>
@@ -12633,25 +12631,25 @@
     </row>
     <row r="358" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" s="9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B358" s="10"/>
       <c r="C358" s="10"/>
       <c r="D358" s="10"/>
       <c r="E358" s="10" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="F358" s="10" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A359" s="9" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B359" s="10"/>
       <c r="C359" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D359" s="10"/>
       <c r="E359" s="10" t="str">
@@ -12665,16 +12663,16 @@
     </row>
     <row r="360" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="9" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B360" s="10" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D360" s="10" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="E360" s="10" t="str">
         <f t="shared" ref="E360:E364" si="15">IF(ISBLANK(C360),"","&lt;!-- "&amp;C360&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A360&amp;"""&gt;"&amp;D360&amp;"&lt;/item&gt;"</f>
@@ -12687,16 +12685,16 @@
     </row>
     <row r="361" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A361" s="9" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B361" s="10" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D361" s="10" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="E361" s="10" t="str">
         <f t="shared" si="15"/>
@@ -12712,13 +12710,13 @@
         <v>130</v>
       </c>
       <c r="B362" s="10" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D362" s="10" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="E362" s="10" t="str">
         <f t="shared" si="15"/>
@@ -12731,16 +12729,16 @@
     </row>
     <row r="363" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="9" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B363" s="10" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D363" s="10" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="E363" s="10" t="str">
         <f t="shared" si="15"/>
@@ -12753,16 +12751,16 @@
     </row>
     <row r="364" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A364" s="9" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B364" s="10" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D364" s="10" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="E364" s="10" t="str">
         <f t="shared" si="15"/>
@@ -12775,25 +12773,25 @@
     </row>
     <row r="365" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="9" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B365" s="10"/>
       <c r="C365" s="10"/>
       <c r="D365" s="10"/>
       <c r="E365" s="10" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="F365" s="10" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A366" s="9" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B366" s="10"/>
       <c r="C366" s="10" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D366" s="10"/>
       <c r="E366" s="10" t="str">
@@ -12807,16 +12805,16 @@
     </row>
     <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="9" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B367" s="10" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D367" s="10" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="E367" s="10" t="str">
         <f t="shared" ref="E367:E371" si="17">IF(ISBLANK(C367),"","&lt;!-- "&amp;C367&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A367&amp;"""&gt;"&amp;D367&amp;"&lt;/item&gt;"</f>
@@ -12829,16 +12827,16 @@
     </row>
     <row r="368" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A368" s="9" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B368" s="10" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D368" s="10" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="E368" s="10" t="str">
         <f t="shared" si="17"/>
@@ -12854,13 +12852,13 @@
         <v>130</v>
       </c>
       <c r="B369" s="10" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D369" s="10" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="E369" s="10" t="str">
         <f t="shared" si="17"/>
@@ -12873,16 +12871,16 @@
     </row>
     <row r="370" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" s="9" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B370" s="10" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C370" s="10" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D370" s="10" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="E370" s="10" t="str">
         <f t="shared" si="17"/>
@@ -12895,16 +12893,16 @@
     </row>
     <row r="371" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="9" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B371" s="10" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D371" s="10" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="E371" s="10" t="str">
         <f t="shared" si="17"/>
@@ -12917,21 +12915,21 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="9" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B372" s="10"/>
       <c r="C372" s="10"/>
       <c r="D372" s="10"/>
       <c r="E372" s="10" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="F372" s="10" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="11" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
@@ -12941,14 +12939,14 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="9" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B374" s="10" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C374" s="10"/>
       <c r="D374" s="10" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="E374" s="13" t="str">
         <f t="shared" ref="E374:E377" si="19">IF(ISBLANK(C374),"","&lt;!-- "&amp;C374&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A374&amp;"""&gt;"&amp;D374&amp;"&lt;/string&gt;"</f>
@@ -12961,14 +12959,14 @@
     </row>
     <row r="375" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="9" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B375" s="10" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="10" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E375" s="13" t="str">
         <f t="shared" si="19"/>
@@ -12981,14 +12979,14 @@
     </row>
     <row r="376" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="9" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B376" s="10" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C376" s="10"/>
       <c r="D376" s="10" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="E376" s="13" t="str">
         <f t="shared" si="19"/>
@@ -13001,14 +12999,14 @@
     </row>
     <row r="377" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="9" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B377" s="10" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C377" s="10"/>
       <c r="D377" s="10" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="E377" s="13" t="str">
         <f t="shared" si="19"/>
@@ -13021,7 +13019,7 @@
     </row>
     <row r="378" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A378" s="9" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B378" s="10"/>
       <c r="C378" s="10"/>
@@ -13037,14 +13035,14 @@
     </row>
     <row r="379" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B379" s="10" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C379" s="10"/>
       <c r="D379" s="10" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="E379" s="13" t="str">
         <f t="shared" ref="E379:E380" si="21">IF(ISBLANK(C379),"","&lt;!-- "&amp;C379&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D379&amp;"&lt;/item&gt;"</f>
@@ -13057,14 +13055,14 @@
     </row>
     <row r="380" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A380" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B380" s="10" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C380" s="10"/>
       <c r="D380" s="10" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E380" s="13" t="str">
         <f t="shared" si="21"/>
@@ -13077,21 +13075,21 @@
     </row>
     <row r="381" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A381" s="9" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B381" s="10"/>
       <c r="C381" s="10"/>
       <c r="D381" s="10"/>
       <c r="E381" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F381" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="9" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B382" s="10"/>
       <c r="C382" s="10"/>
@@ -13107,14 +13105,14 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B383" s="10" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C383" s="10"/>
       <c r="D383" s="10" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E383" s="13" t="str">
         <f t="shared" ref="E383:E389" si="22">IF(ISBLANK(C383),"","&lt;!-- "&amp;C383&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D383&amp;"&lt;/item&gt;"</f>
@@ -13127,14 +13125,14 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B384" s="10" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C384" s="10"/>
       <c r="D384" s="10" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E384" s="13" t="str">
         <f t="shared" si="22"/>
@@ -13147,14 +13145,14 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B385" s="10" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C385" s="10"/>
       <c r="D385" s="10" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E385" s="13" t="str">
         <f t="shared" si="22"/>
@@ -13167,14 +13165,14 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B386" s="10" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C386" s="10"/>
       <c r="D386" s="10" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E386" s="13" t="str">
         <f t="shared" si="22"/>
@@ -13187,14 +13185,14 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B387" s="10" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C387" s="10"/>
       <c r="D387" s="10" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E387" s="13" t="str">
         <f t="shared" si="22"/>
@@ -13207,14 +13205,14 @@
     </row>
     <row r="388" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B388" s="10" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C388" s="10"/>
       <c r="D388" s="10" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E388" s="13" t="str">
         <f t="shared" si="22"/>
@@ -13227,14 +13225,14 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B389" s="10" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C389" s="10"/>
       <c r="D389" s="10" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E389" s="13" t="str">
         <f t="shared" si="22"/>
@@ -13247,21 +13245,21 @@
     </row>
     <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="9" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B390" s="10"/>
       <c r="C390" s="10"/>
       <c r="D390" s="10"/>
       <c r="E390" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F390" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A391" s="11" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B391" s="14"/>
       <c r="C391" s="14"/>
@@ -13271,14 +13269,14 @@
     </row>
     <row r="392" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="9" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B392" s="10" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C392" s="10"/>
       <c r="D392" s="10" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="E392" s="10" t="str">
         <f t="shared" ref="E392:E395" si="24">IF(ISBLANK(C392),"","&lt;!-- "&amp;C392&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A392&amp;"""&gt;"&amp;D392&amp;"&lt;/string&gt;"</f>
@@ -13291,14 +13289,14 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="9" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B393" s="10" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C393" s="10"/>
       <c r="D393" s="10" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E393" s="10" t="str">
         <f t="shared" si="24"/>
@@ -13311,14 +13309,14 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="9" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B394" s="10" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C394" s="10"/>
       <c r="D394" s="10" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E394" s="10" t="str">
         <f t="shared" si="24"/>
@@ -13331,14 +13329,14 @@
     </row>
     <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="9" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B395" s="10" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C395" s="10"/>
       <c r="D395" s="10" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E395" s="10" t="str">
         <f t="shared" si="24"/>
@@ -13351,7 +13349,7 @@
     </row>
     <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="9" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B396" s="10"/>
       <c r="C396" s="10"/>
@@ -13367,14 +13365,14 @@
     </row>
     <row r="397" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B397" s="10" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C397" s="10"/>
       <c r="D397" s="10" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="E397" s="10" t="str">
         <f t="shared" ref="E397:E403" si="25">IF(ISBLANK(C397),"","&lt;!-- "&amp;C397&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D397&amp;"&lt;/item&gt;"</f>
@@ -13387,14 +13385,14 @@
     </row>
     <row r="398" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A398" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B398" s="10" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C398" s="10"/>
       <c r="D398" s="10" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="E398" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13407,14 +13405,14 @@
     </row>
     <row r="399" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A399" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B399" s="10" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C399" s="10"/>
       <c r="D399" s="10" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="E399" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13427,34 +13425,34 @@
     </row>
     <row r="400" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A400" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B400" s="10" t="s">
-        <v>958</v>
+        <v>1645</v>
       </c>
       <c r="C400" s="10"/>
       <c r="D400" s="10" t="s">
-        <v>1581</v>
+        <v>1646</v>
       </c>
       <c r="E400" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;item&gt;Do your child’s eyes properly align with each other in the daytime? Any signs of strabismus (cross-eye) unrelated to his condition like being tired, sick or anxious?&lt;/item&gt;</v>
+        <v>&lt;item&gt;Do your child’s eyes properly align with each other in the daytime unrelated to his condition like being tired, sick or anxious (cross-eye)?&lt;/item&gt;</v>
       </c>
       <c r="F400" s="10" t="str">
         <f t="shared" si="26"/>
-        <v>&lt;item&gt;Расположены ли глаза ребенка по прямой линии в течение дня (отсутствие косоглазия)? Не косят ли глаза ребенка независимо от его состояния: усталость, болезнь, нервное возбуждение?&lt;/item&gt;</v>
+        <v>&lt;item&gt;Расположены ли глаза ребенка по прямой линии в течение дня, независимо от его состояния: будь то усталость, болезнь, нервное возбуждение (отсутствие косоглазия)?&lt;/item&gt;</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A401" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C401" s="10"/>
       <c r="D401" s="10" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E401" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13467,14 +13465,14 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B402" s="10" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C402" s="10"/>
       <c r="D402" s="10" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E402" s="10" t="str">
         <f t="shared" si="25"/>
@@ -13487,41 +13485,41 @@
     </row>
     <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B403" s="10" t="s">
-        <v>963</v>
+        <v>1647</v>
       </c>
       <c r="C403" s="10"/>
       <c r="D403" s="10" t="s">
-        <v>964</v>
+        <v>1648</v>
       </c>
       <c r="E403" s="10" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;item&gt;Does the child have any difficulty reading? Can they explain what they have just read?&lt;/item&gt;</v>
+        <v>&lt;item&gt;The child doesn’t have any difficulty reading and they explain what they have just read.&lt;/item&gt;</v>
       </c>
       <c r="F403" s="10" t="str">
         <f t="shared" si="26"/>
-        <v>&lt;item&gt;Ребенок читает без затруднений и может объяснить прочитанное?&lt;/item&gt;</v>
+        <v>&lt;item&gt;Ребенок читает самостоятельно и может объяснить прочитанное.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A404" s="9" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B404" s="10"/>
       <c r="C404" s="10"/>
       <c r="D404" s="10"/>
       <c r="E404" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F404" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="9" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B405" s="10"/>
       <c r="C405" s="10"/>
@@ -13537,14 +13535,14 @@
     </row>
     <row r="406" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B406" s="10" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C406" s="10"/>
       <c r="D406" s="10" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="E406" s="10" t="str">
         <f t="shared" ref="E406:E412" si="27">IF(ISBLANK(C406),"","&lt;!-- "&amp;C406&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D406&amp;"&lt;/item&gt;"</f>
@@ -13557,14 +13555,14 @@
     </row>
     <row r="407" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A407" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B407" s="10" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C407" s="10"/>
       <c r="D407" s="10" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="E407" s="10" t="str">
         <f t="shared" si="27"/>
@@ -13577,14 +13575,14 @@
     </row>
     <row r="408" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A408" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B408" s="10" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="C408" s="10"/>
       <c r="D408" s="10" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="E408" s="10" t="str">
         <f t="shared" si="27"/>
@@ -13597,14 +13595,14 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="C409" s="10"/>
       <c r="D409" s="10" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="E409" s="10" t="str">
         <f t="shared" si="27"/>
@@ -13617,14 +13615,14 @@
     </row>
     <row r="410" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A410" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B410" s="10" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="C410" s="10"/>
       <c r="D410" s="10" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="E410" s="10" t="str">
         <f t="shared" si="27"/>
@@ -13637,14 +13635,14 @@
     </row>
     <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="C411" s="10"/>
       <c r="D411" s="10" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="E411" s="10" t="str">
         <f t="shared" si="27"/>
@@ -13657,14 +13655,14 @@
     </row>
     <row r="412" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A412" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B412" s="10" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="C412" s="10"/>
       <c r="D412" s="10" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="E412" s="10" t="str">
         <f t="shared" si="27"/>
@@ -13677,21 +13675,21 @@
     </row>
     <row r="413" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="9" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B413" s="10"/>
       <c r="C413" s="10"/>
       <c r="D413" s="10"/>
       <c r="E413" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F413" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="9" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="B414" s="10"/>
       <c r="C414" s="10"/>
@@ -13707,14 +13705,14 @@
     </row>
     <row r="415" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A415" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B415" s="10" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C415" s="10"/>
       <c r="D415" s="10" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="E415" s="10" t="str">
         <f t="shared" ref="E415:E421" si="29">IF(ISBLANK(C415),"","&lt;!-- "&amp;C415&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D415&amp;"&lt;/item&gt;"</f>
@@ -13727,14 +13725,14 @@
     </row>
     <row r="416" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A416" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B416" s="10" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C416" s="10"/>
       <c r="D416" s="10" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="E416" s="10" t="str">
         <f t="shared" si="29"/>
@@ -13747,14 +13745,14 @@
     </row>
     <row r="417" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B417" s="10" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="C417" s="10"/>
       <c r="D417" s="10" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="E417" s="10" t="str">
         <f t="shared" si="29"/>
@@ -13767,14 +13765,14 @@
     </row>
     <row r="418" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A418" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B418" s="10" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C418" s="10"/>
       <c r="D418" s="10" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="E418" s="10" t="str">
         <f t="shared" si="29"/>
@@ -13787,14 +13785,14 @@
     </row>
     <row r="419" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A419" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B419" s="10" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="C419" s="10"/>
       <c r="D419" s="10" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="E419" s="10" t="str">
         <f t="shared" si="29"/>
@@ -13807,14 +13805,14 @@
     </row>
     <row r="420" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="C420" s="10"/>
       <c r="D420" s="10" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="E420" s="10" t="str">
         <f t="shared" si="29"/>
@@ -13827,14 +13825,14 @@
     </row>
     <row r="421" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A421" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B421" s="10" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="C421" s="10"/>
       <c r="D421" s="10" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="E421" s="10" t="str">
         <f t="shared" si="29"/>
@@ -13847,21 +13845,21 @@
     </row>
     <row r="422" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="9" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="B422" s="10"/>
       <c r="C422" s="10"/>
       <c r="D422" s="10"/>
       <c r="E422" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F422" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A423" s="11" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B423" s="14"/>
       <c r="C423" s="14"/>
@@ -13871,14 +13869,14 @@
     </row>
     <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="9" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B424" s="10" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C424" s="10"/>
       <c r="D424" s="10" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="E424" s="10" t="str">
         <f t="shared" ref="E424:E427" si="31">IF(ISBLANK(C424),"","&lt;!-- "&amp;C424&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A424&amp;"""&gt;"&amp;D424&amp;"&lt;/string&gt;"</f>
@@ -13891,14 +13889,14 @@
     </row>
     <row r="425" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="9" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B425" s="10" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C425" s="10"/>
       <c r="D425" s="10" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="E425" s="10" t="str">
         <f t="shared" si="31"/>
@@ -13911,14 +13909,14 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="9" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B426" s="10" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="C426" s="10"/>
       <c r="D426" s="10" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="E426" s="10" t="str">
         <f t="shared" si="31"/>
@@ -13931,14 +13929,14 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="9" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="B427" s="10" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="C427" s="10"/>
       <c r="D427" s="10" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="E427" s="10" t="str">
         <f t="shared" si="31"/>
@@ -13951,7 +13949,7 @@
     </row>
     <row r="428" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="9" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B428" s="10"/>
       <c r="C428" s="10"/>
@@ -13967,14 +13965,14 @@
     </row>
     <row r="429" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B429" s="10" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C429" s="10"/>
       <c r="D429" s="10" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="E429" s="10" t="str">
         <f t="shared" ref="E429:E435" si="32">IF(ISBLANK(C429),"","&lt;!-- "&amp;C429&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D429&amp;"&lt;/item&gt;"</f>
@@ -13987,14 +13985,14 @@
     </row>
     <row r="430" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A430" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B430" s="10" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="C430" s="10"/>
       <c r="D430" s="10" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E430" s="10" t="str">
         <f t="shared" si="32"/>
@@ -14007,14 +14005,14 @@
     </row>
     <row r="431" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A431" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="C431" s="10"/>
       <c r="D431" s="10" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="E431" s="10" t="str">
         <f t="shared" si="32"/>
@@ -14027,14 +14025,14 @@
     </row>
     <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B432" s="10" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="C432" s="10"/>
       <c r="D432" s="10" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="E432" s="10" t="str">
         <f t="shared" si="32"/>
@@ -14047,14 +14045,14 @@
     </row>
     <row r="433" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A433" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B433" s="10" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C433" s="10"/>
       <c r="D433" s="10" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="E433" s="10" t="str">
         <f t="shared" si="32"/>
@@ -14067,14 +14065,14 @@
     </row>
     <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B434" s="10" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C434" s="10"/>
       <c r="D434" s="10" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E434" s="10" t="str">
         <f t="shared" si="32"/>
@@ -14087,14 +14085,14 @@
     </row>
     <row r="435" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="C435" s="10"/>
       <c r="D435" s="10" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="E435" s="10" t="str">
         <f t="shared" si="32"/>
@@ -14107,21 +14105,21 @@
     </row>
     <row r="436" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="9" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B436" s="10"/>
       <c r="C436" s="10"/>
       <c r="D436" s="10"/>
       <c r="E436" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F436" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="9" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B437" s="10"/>
       <c r="C437" s="10"/>
@@ -14137,14 +14135,14 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B438" s="10" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="C438" s="10"/>
       <c r="D438" s="10" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="E438" s="10" t="str">
         <f t="shared" ref="E438:E444" si="34">IF(ISBLANK(C438),"","&lt;!-- "&amp;C438&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D438&amp;"&lt;/item&gt;"</f>
@@ -14157,14 +14155,14 @@
     </row>
     <row r="439" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A439" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B439" s="10" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="C439" s="10"/>
       <c r="D439" s="10" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="E439" s="10" t="str">
         <f t="shared" si="34"/>
@@ -14177,14 +14175,14 @@
     </row>
     <row r="440" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B440" s="10" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="C440" s="10"/>
       <c r="D440" s="10" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="E440" s="10" t="str">
         <f t="shared" si="34"/>
@@ -14197,14 +14195,14 @@
     </row>
     <row r="441" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B441" s="10" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="C441" s="10"/>
       <c r="D441" s="10" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="E441" s="10" t="str">
         <f t="shared" si="34"/>
@@ -14217,14 +14215,14 @@
     </row>
     <row r="442" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B442" s="10" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="C442" s="10"/>
       <c r="D442" s="10" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="E442" s="10" t="str">
         <f t="shared" si="34"/>
@@ -14237,14 +14235,14 @@
     </row>
     <row r="443" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B443" s="10" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="C443" s="10"/>
       <c r="D443" s="10" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="E443" s="10" t="str">
         <f t="shared" si="34"/>
@@ -14257,14 +14255,14 @@
     </row>
     <row r="444" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A444" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B444" s="10" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="C444" s="10"/>
       <c r="D444" s="10" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="E444" s="10" t="str">
         <f t="shared" si="34"/>
@@ -14277,21 +14275,21 @@
     </row>
     <row r="445" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A445" s="9" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B445" s="10"/>
       <c r="C445" s="10"/>
       <c r="D445" s="10"/>
       <c r="E445" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F445" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A446" s="9" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="B446" s="10"/>
       <c r="C446" s="10"/>
@@ -14307,14 +14305,14 @@
     </row>
     <row r="447" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B447" s="10" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="C447" s="10"/>
       <c r="D447" s="10" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E447" s="10" t="str">
         <f t="shared" ref="E447:E453" si="36">IF(ISBLANK(C447),"","&lt;!-- "&amp;C447&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D447&amp;"&lt;/item&gt;"</f>
@@ -14327,14 +14325,14 @@
     </row>
     <row r="448" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A448" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B448" s="10" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="C448" s="10"/>
       <c r="D448" s="10" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="E448" s="10" t="str">
         <f t="shared" si="36"/>
@@ -14347,14 +14345,14 @@
     </row>
     <row r="449" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A449" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B449" s="10" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="C449" s="10"/>
       <c r="D449" s="10" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E449" s="10" t="str">
         <f t="shared" si="36"/>
@@ -14367,14 +14365,14 @@
     </row>
     <row r="450" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A450" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C450" s="10"/>
       <c r="D450" s="10" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
       <c r="E450" s="10" t="str">
         <f t="shared" si="36"/>
@@ -14388,14 +14386,14 @@
     </row>
     <row r="451" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A451" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B451" s="10" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C451" s="10"/>
       <c r="D451" s="10" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="E451" s="10" t="str">
         <f t="shared" si="36"/>
@@ -14408,14 +14406,14 @@
     </row>
     <row r="452" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A452" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B452" s="10" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C452" s="10"/>
       <c r="D452" s="10" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E452" s="10" t="str">
         <f t="shared" si="36"/>
@@ -14428,14 +14426,14 @@
     </row>
     <row r="453" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B453" s="10" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="C453" s="10"/>
       <c r="D453" s="10" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="E453" s="10" t="str">
         <f t="shared" si="36"/>
@@ -14448,21 +14446,21 @@
     </row>
     <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="B454" s="10"/>
       <c r="C454" s="10"/>
       <c r="D454" s="10"/>
       <c r="E454" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F454" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A455" s="11" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="B455" s="14"/>
       <c r="C455" s="14"/>
@@ -14472,14 +14470,14 @@
     </row>
     <row r="456" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B456" s="10" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C456" s="10"/>
       <c r="D456" s="10" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="E456" s="10" t="str">
         <f t="shared" ref="E456:E460" si="38">IF(ISBLANK(C456),"","&lt;!-- "&amp;C456&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A456&amp;"""&gt;"&amp;D456&amp;"&lt;/string&gt;"</f>
@@ -14492,14 +14490,14 @@
     </row>
     <row r="457" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A457" s="9" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="B457" s="10" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="C457" s="10"/>
       <c r="D457" s="10" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="E457" s="10" t="str">
         <f t="shared" si="38"/>
@@ -14512,14 +14510,14 @@
     </row>
     <row r="458" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A458" s="9" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="C458" s="10"/>
       <c r="D458" s="10" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="E458" s="10" t="str">
         <f t="shared" si="38"/>
@@ -14532,14 +14530,14 @@
     </row>
     <row r="459" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" s="9" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="B459" s="10" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="C459" s="10"/>
       <c r="D459" s="10" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E459" s="10" t="str">
         <f t="shared" si="38"/>
@@ -14552,14 +14550,14 @@
     </row>
     <row r="460" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A460" s="9" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="B460" s="10" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="C460" s="10"/>
       <c r="D460" s="10" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="E460" s="10" t="str">
         <f t="shared" si="38"/>
@@ -14572,7 +14570,7 @@
     </row>
     <row r="461" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A461" s="9" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="B461" s="10"/>
       <c r="C461" s="10"/>
@@ -14588,14 +14586,14 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B462" s="10" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="C462" s="10"/>
       <c r="D462" s="10" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E462" s="10" t="str">
         <f t="shared" ref="E462:E463" si="40">IF(ISBLANK(C462),"","&lt;!-- "&amp;C462&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D462&amp;"&lt;/item&gt;"</f>
@@ -14608,14 +14606,14 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B463" s="10" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C463" s="10"/>
       <c r="D463" s="10" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E463" s="10" t="str">
         <f t="shared" si="40"/>
@@ -14628,21 +14626,21 @@
     </row>
     <row r="464" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A464" s="9" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="B464" s="10"/>
       <c r="C464" s="10"/>
       <c r="D464" s="10"/>
       <c r="E464" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F464" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="9" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B465" s="10"/>
       <c r="C465" s="10"/>
@@ -14658,14 +14656,14 @@
     </row>
     <row r="466" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A466" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B466" s="10" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C466" s="10"/>
       <c r="D466" s="10" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="E466" s="10" t="str">
         <f t="shared" ref="E466:E490" si="42">IF(ISBLANK(C466),"","&lt;!-- "&amp;C466&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D466&amp;"&lt;/item&gt;"</f>
@@ -14678,14 +14676,14 @@
     </row>
     <row r="467" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B467" s="10" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="C467" s="10"/>
       <c r="D467" s="10" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="E467" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14698,14 +14696,14 @@
     </row>
     <row r="468" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B468" s="10" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="C468" s="10"/>
       <c r="D468" s="10" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="E468" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14718,14 +14716,14 @@
     </row>
     <row r="469" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A469" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B469" s="10" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C469" s="10"/>
       <c r="D469" s="10" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="E469" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14738,14 +14736,14 @@
     </row>
     <row r="470" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B470" s="10" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C470" s="10"/>
       <c r="D470" s="10" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="E470" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14758,14 +14756,14 @@
     </row>
     <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A471" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B471" s="10" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="C471" s="10"/>
       <c r="D471" s="10" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="E471" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14778,14 +14776,14 @@
     </row>
     <row r="472" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B472" s="10" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="C472" s="10"/>
       <c r="D472" s="10" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="E472" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14798,14 +14796,14 @@
     </row>
     <row r="473" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B473" s="10" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="C473" s="10"/>
       <c r="D473" s="10" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E473" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14818,14 +14816,14 @@
     </row>
     <row r="474" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A474" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B474" s="10" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="C474" s="10"/>
       <c r="D474" s="10" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="E474" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14838,14 +14836,14 @@
     </row>
     <row r="475" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A475" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B475" s="10" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="C475" s="10"/>
       <c r="D475" s="10" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="E475" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14858,14 +14856,14 @@
     </row>
     <row r="476" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A476" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B476" s="10" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C476" s="10"/>
       <c r="D476" s="10" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="E476" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14878,14 +14876,14 @@
     </row>
     <row r="477" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A477" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B477" s="10" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="C477" s="10"/>
       <c r="D477" s="10" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="E477" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14898,14 +14896,14 @@
     </row>
     <row r="478" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A478" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B478" s="10" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C478" s="10"/>
       <c r="D478" s="10" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="E478" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14918,14 +14916,14 @@
     </row>
     <row r="479" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A479" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B479" s="10" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C479" s="10"/>
       <c r="D479" s="10" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="E479" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14938,14 +14936,14 @@
     </row>
     <row r="480" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A480" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B480" s="10" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="C480" s="10"/>
       <c r="D480" s="10" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="E480" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14958,14 +14956,14 @@
     </row>
     <row r="481" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A481" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B481" s="10" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="C481" s="10"/>
       <c r="D481" s="10" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="E481" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14978,14 +14976,14 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B482" s="10" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C482" s="10"/>
       <c r="D482" s="10" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E482" s="10" t="str">
         <f t="shared" si="42"/>
@@ -14998,14 +14996,14 @@
     </row>
     <row r="483" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A483" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B483" s="10" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="C483" s="10"/>
       <c r="D483" s="10" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="E483" s="10" t="str">
         <f t="shared" si="42"/>
@@ -15018,14 +15016,14 @@
     </row>
     <row r="484" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A484" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B484" s="10" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="C484" s="10"/>
       <c r="D484" s="10" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="E484" s="10" t="str">
         <f t="shared" si="42"/>
@@ -15038,14 +15036,14 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B485" s="10" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="C485" s="10"/>
       <c r="D485" s="10" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="E485" s="10" t="str">
         <f t="shared" si="42"/>
@@ -15058,14 +15056,14 @@
     </row>
     <row r="486" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A486" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B486" s="10" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="C486" s="10"/>
       <c r="D486" s="10" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E486" s="10" t="str">
         <f t="shared" si="42"/>
@@ -15078,14 +15076,14 @@
     </row>
     <row r="487" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A487" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B487" s="10" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="C487" s="10"/>
       <c r="D487" s="10" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="E487" s="10" t="str">
         <f t="shared" si="42"/>
@@ -15098,14 +15096,14 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B488" s="10" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C488" s="10"/>
       <c r="D488" s="10" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="E488" s="10" t="str">
         <f t="shared" si="42"/>
@@ -15118,14 +15116,14 @@
     </row>
     <row r="489" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A489" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B489" s="10" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="C489" s="10"/>
       <c r="D489" s="10" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="E489" s="10" t="str">
         <f t="shared" si="42"/>
@@ -15138,14 +15136,14 @@
     </row>
     <row r="490" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A490" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B490" s="10" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="C490" s="10"/>
       <c r="D490" s="10" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="E490" s="10" t="str">
         <f t="shared" si="42"/>
@@ -15158,21 +15156,21 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="9" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B491" s="10"/>
       <c r="C491" s="10"/>
       <c r="D491" s="10"/>
       <c r="E491" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F491" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A492" s="11" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="B492" s="14"/>
       <c r="C492" s="14"/>
@@ -15182,14 +15180,14 @@
     </row>
     <row r="493" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" s="9" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="B493" s="10" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="C493" s="10"/>
       <c r="D493" s="10" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="E493" s="10" t="str">
         <f t="shared" ref="E493:E500" si="44">IF(ISBLANK(C493),"","&lt;!-- "&amp;C493&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A493&amp;"""&gt;"&amp;D493&amp;"&lt;/string&gt;"</f>
@@ -15202,14 +15200,14 @@
     </row>
     <row r="494" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A494" s="9" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="B494" s="10" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="C494" s="10"/>
       <c r="D494" s="10" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="E494" s="10" t="str">
         <f t="shared" si="44"/>
@@ -15222,14 +15220,14 @@
     </row>
     <row r="495" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A495" s="9" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="B495" s="10" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="C495" s="10"/>
       <c r="D495" s="10" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="E495" s="10" t="str">
         <f t="shared" si="44"/>
@@ -15242,14 +15240,14 @@
     </row>
     <row r="496" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A496" s="9" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="B496" s="10" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="C496" s="10"/>
       <c r="D496" s="10" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="E496" s="10" t="str">
         <f t="shared" si="44"/>
@@ -15262,16 +15260,16 @@
     </row>
     <row r="497" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A497" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="B497" s="10" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="C497" s="10" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="D497" s="10" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="E497" s="10" t="str">
         <f t="shared" si="44"/>
@@ -15284,14 +15282,14 @@
     </row>
     <row r="498" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="9" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="B498" s="10" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="C498" s="10"/>
       <c r="D498" s="10" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="E498" s="10" t="str">
         <f t="shared" si="44"/>
@@ -15304,14 +15302,14 @@
     </row>
     <row r="499" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="9" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="B499" s="10" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="C499" s="10"/>
       <c r="D499" s="10" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E499" s="10" t="str">
         <f t="shared" si="44"/>
@@ -15324,14 +15322,14 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="9" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="B500" s="10" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="C500" s="10"/>
       <c r="D500" s="10" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="E500" s="10" t="str">
         <f t="shared" si="44"/>
@@ -15344,7 +15342,7 @@
     </row>
     <row r="501" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A501" s="9" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="B501" s="10"/>
       <c r="C501" s="10"/>
@@ -15360,14 +15358,14 @@
     </row>
     <row r="502" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A502" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B502" s="10" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="C502" s="10"/>
       <c r="D502" s="10" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="E502" s="10" t="str">
         <f t="shared" ref="E502:E504" si="45">IF(ISBLANK(C502),"","&lt;!-- "&amp;C502&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D502&amp;"&lt;/item&gt;"</f>
@@ -15380,14 +15378,14 @@
     </row>
     <row r="503" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A503" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B503" s="10" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="C503" s="10"/>
       <c r="D503" s="10" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="E503" s="10" t="str">
         <f t="shared" si="45"/>
@@ -15400,14 +15398,14 @@
     </row>
     <row r="504" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A504" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B504" s="10" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="C504" s="10"/>
       <c r="D504" s="10" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="E504" s="10" t="str">
         <f t="shared" si="45"/>
@@ -15420,21 +15418,21 @@
     </row>
     <row r="505" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A505" s="9" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="B505" s="10"/>
       <c r="C505" s="10"/>
       <c r="D505" s="10"/>
       <c r="E505" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F505" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="9" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="B506" s="10"/>
       <c r="C506" s="10"/>
@@ -15450,14 +15448,14 @@
     </row>
     <row r="507" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A507" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B507" s="10" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="C507" s="10"/>
       <c r="D507" s="10" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="E507" s="10" t="str">
         <f t="shared" ref="E507:E526" si="47">IF(ISBLANK(C507),"","&lt;!-- "&amp;C507&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D507&amp;"&lt;/item&gt;"</f>
@@ -15470,14 +15468,14 @@
     </row>
     <row r="508" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A508" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B508" s="10" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="C508" s="10"/>
       <c r="D508" s="10" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="E508" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15490,14 +15488,14 @@
     </row>
     <row r="509" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A509" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B509" s="10" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="C509" s="10"/>
       <c r="D509" s="10" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="E509" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15510,14 +15508,14 @@
     </row>
     <row r="510" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A510" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B510" s="10" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="C510" s="10"/>
       <c r="D510" s="10" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="E510" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15530,14 +15528,14 @@
     </row>
     <row r="511" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A511" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B511" s="10" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="C511" s="10"/>
       <c r="D511" s="10" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="E511" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15550,14 +15548,14 @@
     </row>
     <row r="512" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A512" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B512" s="10" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="C512" s="10"/>
       <c r="D512" s="10" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
       <c r="E512" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15570,14 +15568,14 @@
     </row>
     <row r="513" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A513" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B513" s="10" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="C513" s="10"/>
       <c r="D513" s="10" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="E513" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15590,14 +15588,14 @@
     </row>
     <row r="514" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A514" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B514" s="10" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="C514" s="10"/>
       <c r="D514" s="10" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="E514" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15610,14 +15608,14 @@
     </row>
     <row r="515" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B515" s="10" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="C515" s="10"/>
       <c r="D515" s="10" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="E515" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15630,14 +15628,14 @@
     </row>
     <row r="516" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A516" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B516" s="10" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="C516" s="10"/>
       <c r="D516" s="10" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="E516" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15650,14 +15648,14 @@
     </row>
     <row r="517" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B517" s="10" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="C517" s="10"/>
       <c r="D517" s="10" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="E517" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15670,14 +15668,14 @@
     </row>
     <row r="518" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A518" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B518" s="10" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C518" s="10"/>
       <c r="D518" s="10" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="E518" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15690,14 +15688,14 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B519" s="10" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="C519" s="10"/>
       <c r="D519" s="10" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="E519" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15710,14 +15708,14 @@
     </row>
     <row r="520" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A520" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B520" s="10" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C520" s="10"/>
       <c r="D520" s="10" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="E520" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15730,14 +15728,14 @@
     </row>
     <row r="521" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A521" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B521" s="10" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="C521" s="10"/>
       <c r="D521" s="10" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="E521" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15750,14 +15748,14 @@
     </row>
     <row r="522" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A522" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B522" s="10" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C522" s="10"/>
       <c r="D522" s="10" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="E522" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15770,14 +15768,14 @@
     </row>
     <row r="523" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A523" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B523" s="10" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="C523" s="10"/>
       <c r="D523" s="10" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="E523" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15790,14 +15788,14 @@
     </row>
     <row r="524" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A524" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B524" s="10" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="C524" s="10"/>
       <c r="D524" s="10" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="E524" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15810,14 +15808,14 @@
     </row>
     <row r="525" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A525" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B525" s="10" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="C525" s="10"/>
       <c r="D525" s="10" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="E525" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15830,14 +15828,14 @@
     </row>
     <row r="526" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A526" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B526" s="10" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="C526" s="10"/>
       <c r="D526" s="10" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="E526" s="10" t="str">
         <f t="shared" si="47"/>
@@ -15850,21 +15848,21 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="9" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="B527" s="10"/>
       <c r="C527" s="10"/>
       <c r="D527" s="10"/>
       <c r="E527" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F527" s="10" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A528" s="11" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="B528" s="14"/>
       <c r="C528" s="14"/>
@@ -15890,14 +15888,14 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B530" s="10" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="C530" s="10"/>
       <c r="D530" s="10" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="E530" s="13" t="str">
         <f t="shared" ref="E530:E533" si="49">IF(ISBLANK(C530),"","&lt;!-- "&amp;C530&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D530&amp;"&lt;/item&gt;"</f>
@@ -15910,14 +15908,14 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B531" s="10" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="C531" s="10"/>
       <c r="D531" s="10" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="E531" s="13" t="str">
         <f t="shared" si="49"/>
@@ -15930,14 +15928,14 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B532" s="10" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C532" s="10"/>
       <c r="D532" s="10" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="E532" s="13" t="str">
         <f t="shared" si="49"/>
@@ -15950,14 +15948,14 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B533" s="10" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="C533" s="10"/>
       <c r="D533" s="10" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="E533" s="13" t="str">
         <f t="shared" si="49"/>
@@ -15976,10 +15974,10 @@
       <c r="C534" s="10"/>
       <c r="D534" s="10"/>
       <c r="E534" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F534" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
@@ -16000,14 +15998,14 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B536" s="10" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="C536" s="10"/>
       <c r="D536" s="10" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="E536" s="13" t="str">
         <f t="shared" ref="E536:E537" si="51">IF(ISBLANK(C536),"","&lt;!-- "&amp;C536&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D536&amp;"&lt;/item&gt;"</f>
@@ -16020,14 +16018,14 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B537" s="10" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="C537" s="10"/>
       <c r="D537" s="10" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="E537" s="13" t="str">
         <f t="shared" si="51"/>
@@ -16046,10 +16044,10 @@
       <c r="C538" s="10"/>
       <c r="D538" s="10"/>
       <c r="E538" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F538" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
@@ -16070,14 +16068,14 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B540" s="10" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="C540" s="10"/>
       <c r="D540" s="10" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="E540" s="13" t="str">
         <f t="shared" ref="E540:E606" si="52">IF(ISBLANK(C540),"","&lt;!-- "&amp;C540&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D540&amp;"&lt;/item&gt;"</f>
@@ -16090,14 +16088,14 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B541" s="10" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="C541" s="10"/>
       <c r="D541" s="10" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="E541" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16110,14 +16108,14 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B542" s="10" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="C542" s="10"/>
       <c r="D542" s="10" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="E542" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16130,14 +16128,14 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B543" s="10" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="C543" s="10"/>
       <c r="D543" s="10" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="E543" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16150,14 +16148,14 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B544" s="10" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="C544" s="10"/>
       <c r="D544" s="10" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="E544" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16170,14 +16168,14 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B545" s="10" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="C545" s="10"/>
       <c r="D545" s="10" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E545" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16190,14 +16188,14 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B546" s="10" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="C546" s="10"/>
       <c r="D546" s="10" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="E546" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16210,14 +16208,14 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B547" s="10" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="C547" s="10"/>
       <c r="D547" s="10" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="E547" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16230,14 +16228,14 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B548" s="10" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="C548" s="10"/>
       <c r="D548" s="10" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="E548" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16250,14 +16248,14 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B549" s="10" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="C549" s="10"/>
       <c r="D549" s="10" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="E549" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16270,14 +16268,14 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B550" s="10" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="C550" s="10"/>
       <c r="D550" s="10" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="E550" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16290,14 +16288,14 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B551" s="10" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="C551" s="10"/>
       <c r="D551" s="10" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="E551" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16310,14 +16308,14 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B552" s="10" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="C552" s="10"/>
       <c r="D552" s="10" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="E552" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16330,14 +16328,14 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B553" s="10" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="C553" s="10"/>
       <c r="D553" s="10" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="E553" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16350,14 +16348,14 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B554" s="10" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="C554" s="10"/>
       <c r="D554" s="10" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="E554" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16370,14 +16368,14 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B555" s="10" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="C555" s="10"/>
       <c r="D555" s="10" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="E555" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16390,14 +16388,14 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B556" s="10" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="C556" s="10"/>
       <c r="D556" s="10" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="E556" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16410,14 +16408,14 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B557" s="10" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="C557" s="10"/>
       <c r="D557" s="10" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="E557" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16430,14 +16428,14 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B558" s="10" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="C558" s="10"/>
       <c r="D558" s="10" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="E558" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16450,14 +16448,14 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B559" s="10" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="C559" s="10"/>
       <c r="D559" s="10" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="E559" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16470,14 +16468,14 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B560" s="10" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="C560" s="10"/>
       <c r="D560" s="10" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="E560" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16490,14 +16488,14 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B561" s="10" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="C561" s="10"/>
       <c r="D561" s="10" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="E561" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16510,14 +16508,14 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B562" s="10" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="C562" s="10"/>
       <c r="D562" s="10" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="E562" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16530,14 +16528,14 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B563" s="10" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="C563" s="10"/>
       <c r="D563" s="10" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="E563" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16550,14 +16548,14 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B564" s="10" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="C564" s="10"/>
       <c r="D564" s="10" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="E564" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16570,14 +16568,14 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B565" s="10" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="C565" s="10"/>
       <c r="D565" s="10" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="E565" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16590,14 +16588,14 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B566" s="10" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="C566" s="10"/>
       <c r="D566" s="10" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="E566" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16610,14 +16608,14 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B567" s="10" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="C567" s="10"/>
       <c r="D567" s="10" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="E567" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16630,14 +16628,14 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B568" s="10" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="C568" s="10"/>
       <c r="D568" s="10" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="E568" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16650,14 +16648,14 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B569" s="10" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="C569" s="10"/>
       <c r="D569" s="10" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="E569" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16670,14 +16668,14 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B570" s="10" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="C570" s="10"/>
       <c r="D570" s="10" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="E570" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16690,14 +16688,14 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B571" s="10" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="C571" s="10"/>
       <c r="D571" s="10" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="E571" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16710,14 +16708,14 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B572" s="10" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="C572" s="10"/>
       <c r="D572" s="10" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="E572" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16730,14 +16728,14 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B573" s="10" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="C573" s="10"/>
       <c r="D573" s="10" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="E573" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16750,14 +16748,14 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B574" s="10" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="C574" s="10"/>
       <c r="D574" s="10" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="E574" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16770,14 +16768,14 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B575" s="10" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C575" s="10"/>
       <c r="D575" s="10" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="E575" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16790,14 +16788,14 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B576" s="10" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C576" s="10"/>
       <c r="D576" s="10" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="E576" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16810,14 +16808,14 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B577" s="10" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="C577" s="10"/>
       <c r="D577" s="10" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="E577" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16830,14 +16828,14 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B578" s="10" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="C578" s="10"/>
       <c r="D578" s="10" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="E578" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16850,14 +16848,14 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B579" s="10" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="C579" s="10"/>
       <c r="D579" s="10" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="E579" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16870,14 +16868,14 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B580" s="10" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="C580" s="10"/>
       <c r="D580" s="10" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="E580" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16890,14 +16888,14 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B581" s="10" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="C581" s="10"/>
       <c r="D581" s="10" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="E581" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16910,14 +16908,14 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B582" s="10" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="C582" s="10"/>
       <c r="D582" s="10" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="E582" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16930,14 +16928,14 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B583" s="10" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C583" s="10"/>
       <c r="D583" s="10" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="E583" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16950,14 +16948,14 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B584" s="10" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="C584" s="10"/>
       <c r="D584" s="10" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="E584" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16970,14 +16968,14 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B585" s="10" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="C585" s="10"/>
       <c r="D585" s="10" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="E585" s="13" t="str">
         <f t="shared" si="52"/>
@@ -16990,14 +16988,14 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B586" s="10" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="C586" s="10"/>
       <c r="D586" s="10" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="E586" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17010,14 +17008,14 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B587" s="10" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="C587" s="10"/>
       <c r="D587" s="10" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="E587" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17030,14 +17028,14 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B588" s="10" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C588" s="10"/>
       <c r="D588" s="10" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="E588" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17050,14 +17048,14 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B589" s="10" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="C589" s="10"/>
       <c r="D589" s="10" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="E589" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17070,14 +17068,14 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B590" s="10" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="C590" s="10"/>
       <c r="D590" s="10" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="E590" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17090,14 +17088,14 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B591" s="10" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="C591" s="10"/>
       <c r="D591" s="10" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="E591" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17110,14 +17108,14 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B592" s="10" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="C592" s="10"/>
       <c r="D592" s="10" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="E592" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17130,14 +17128,14 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B593" s="10" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="C593" s="10"/>
       <c r="D593" s="10" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="E593" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17150,14 +17148,14 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B594" s="10" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="C594" s="10"/>
       <c r="D594" s="10" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="E594" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17170,14 +17168,14 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B595" s="10" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="C595" s="10"/>
       <c r="D595" s="10" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="E595" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17190,14 +17188,14 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B596" s="10" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="C596" s="10"/>
       <c r="D596" s="10" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="E596" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17210,14 +17208,14 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B597" s="10" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="C597" s="10"/>
       <c r="D597" s="10" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="E597" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17230,14 +17228,14 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B598" s="10" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="C598" s="10"/>
       <c r="D598" s="10" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="E598" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17250,14 +17248,14 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B599" s="10" t="s">
         <v>413</v>
       </c>
       <c r="C599" s="10"/>
       <c r="D599" s="10" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E599" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17270,14 +17268,14 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B600" s="10" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="C600" s="10"/>
       <c r="D600" s="10" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="E600" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17290,14 +17288,14 @@
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B601" s="10" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="C601" s="10"/>
       <c r="D601" s="10" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="E601" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17310,14 +17308,14 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B602" s="10" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="C602" s="10"/>
       <c r="D602" s="10" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="E602" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17336,10 +17334,10 @@
       <c r="C603" s="10"/>
       <c r="D603" s="10"/>
       <c r="E603" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F603" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
@@ -17360,14 +17358,14 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B605" s="10" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="C605" s="10"/>
       <c r="D605" s="10" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="E605" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17380,14 +17378,14 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B606" s="10" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="C606" s="10"/>
       <c r="D606" s="10" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="E606" s="13" t="str">
         <f t="shared" si="52"/>
@@ -17400,14 +17398,14 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B607" s="10" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="C607" s="10"/>
       <c r="D607" s="10" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="E607" s="13" t="str">
         <f t="shared" ref="E607:E630" si="55">IF(ISBLANK(C607),"","&lt;!-- "&amp;C607&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D607&amp;"&lt;/item&gt;"</f>
@@ -17420,14 +17418,14 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B608" s="10" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="C608" s="10"/>
       <c r="D608" s="10" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="E608" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17440,14 +17438,14 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B609" s="10" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="C609" s="10"/>
       <c r="D609" s="10" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="E609" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17460,14 +17458,14 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B610" s="10" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="C610" s="10"/>
       <c r="D610" s="10" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="E610" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17480,14 +17478,14 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B611" s="10" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="C611" s="10"/>
       <c r="D611" s="10" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="E611" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17500,14 +17498,14 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B612" s="10" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="C612" s="10"/>
       <c r="D612" s="10" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="E612" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17520,14 +17518,14 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B613" s="10" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="C613" s="10"/>
       <c r="D613" s="10" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="E613" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17540,14 +17538,14 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B614" s="10" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C614" s="10"/>
       <c r="D614" s="10" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="E614" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17560,14 +17558,14 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B615" s="10" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C615" s="10"/>
       <c r="D615" s="10" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="E615" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17580,14 +17578,14 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B616" s="10" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="C616" s="10"/>
       <c r="D616" s="10" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="E616" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17600,14 +17598,14 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B617" s="10" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="C617" s="10"/>
       <c r="D617" s="10" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="E617" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17620,14 +17618,14 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B618" s="10" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="C618" s="10"/>
       <c r="D618" s="10" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="E618" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17640,14 +17638,14 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B619" s="10" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="C619" s="10"/>
       <c r="D619" s="10" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="E619" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17660,14 +17658,14 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B620" s="10" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="C620" s="10"/>
       <c r="D620" s="10" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="E620" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17680,14 +17678,14 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B621" s="10" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="C621" s="10"/>
       <c r="D621" s="10" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="E621" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17700,14 +17698,14 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B622" s="10" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="C622" s="10"/>
       <c r="D622" s="10" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="E622" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17720,14 +17718,14 @@
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B623" s="10" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="C623" s="10"/>
       <c r="D623" s="10" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="E623" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17740,14 +17738,14 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B624" s="10" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="C624" s="10"/>
       <c r="D624" s="10" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="E624" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17760,14 +17758,14 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B625" s="10" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="C625" s="10"/>
       <c r="D625" s="10" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="E625" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17780,14 +17778,14 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B626" s="10" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="C626" s="10"/>
       <c r="D626" s="10" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="E626" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17800,14 +17798,14 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B627" s="10" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C627" s="10"/>
       <c r="D627" s="10" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="E627" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17820,14 +17818,14 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B628" s="10" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="C628" s="10"/>
       <c r="D628" s="10" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="E628" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17840,14 +17838,14 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B629" s="10" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="C629" s="10"/>
       <c r="D629" s="10" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="E629" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17860,14 +17858,14 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B630" s="10" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="C630" s="10"/>
       <c r="D630" s="10" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="E630" s="13" t="str">
         <f t="shared" si="55"/>
@@ -17886,10 +17884,10 @@
       <c r="C631" s="10"/>
       <c r="D631" s="10"/>
       <c r="E631" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F631" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="632" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -17910,14 +17908,14 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B633" s="10" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="C633" s="10"/>
       <c r="D633" s="10" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="E633" s="13" t="str">
         <f t="shared" ref="E633:E641" si="56">IF(ISBLANK(C633),"","&lt;!-- "&amp;C633&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D633&amp;"&lt;/item&gt;"</f>
@@ -17930,14 +17928,14 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B634" s="10" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="C634" s="10"/>
       <c r="D634" s="10" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="E634" s="13" t="str">
         <f t="shared" si="56"/>
@@ -17950,14 +17948,14 @@
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B635" s="10" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="C635" s="10"/>
       <c r="D635" s="10" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="E635" s="13" t="str">
         <f t="shared" si="56"/>
@@ -17970,14 +17968,14 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B636" s="10" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="C636" s="10"/>
       <c r="D636" s="10" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="E636" s="13" t="str">
         <f t="shared" si="56"/>
@@ -17990,14 +17988,14 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B637" s="10" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="C637" s="10"/>
       <c r="D637" s="10" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="E637" s="13" t="str">
         <f t="shared" si="56"/>
@@ -18010,14 +18008,14 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B638" s="10" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C638" s="10"/>
       <c r="D638" s="10" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="E638" s="13" t="str">
         <f t="shared" si="56"/>
@@ -18030,14 +18028,14 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B639" s="10" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="C639" s="10"/>
       <c r="D639" s="10" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="E639" s="13" t="str">
         <f t="shared" si="56"/>
@@ -18050,14 +18048,14 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B640" s="10" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="C640" s="10"/>
       <c r="D640" s="10" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="E640" s="13" t="str">
         <f t="shared" si="56"/>
@@ -18070,14 +18068,14 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B641" s="10" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="C641" s="10"/>
       <c r="D641" s="10" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="E641" s="13" t="str">
         <f t="shared" si="56"/>
@@ -18096,10 +18094,10 @@
       <c r="C642" s="10"/>
       <c r="D642" s="10"/>
       <c r="E642" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F642" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
@@ -18120,14 +18118,14 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B644" s="10" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="C644" s="10"/>
       <c r="D644" s="10" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="E644" s="13" t="str">
         <f t="shared" ref="E644:E688" si="58">IF(ISBLANK(C644),"","&lt;!-- "&amp;C644&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;D644&amp;"&lt;/item&gt;"</f>
@@ -18140,14 +18138,14 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B645" s="10" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="C645" s="10"/>
       <c r="D645" s="10" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="E645" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18160,14 +18158,14 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B646" s="10" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="C646" s="10"/>
       <c r="D646" s="10" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="E646" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18180,14 +18178,14 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B647" s="10" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="C647" s="10"/>
       <c r="D647" s="10" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="E647" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18200,14 +18198,14 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B648" s="10" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="C648" s="10"/>
       <c r="D648" s="10" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="E648" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18220,14 +18218,14 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B649" s="10" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C649" s="10"/>
       <c r="D649" s="10" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E649" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18240,14 +18238,14 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B650" s="10" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="C650" s="10"/>
       <c r="D650" s="10" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="E650" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18260,14 +18258,14 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B651" s="10" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="C651" s="10"/>
       <c r="D651" s="10" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="E651" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18280,14 +18278,14 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B652" s="10" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="C652" s="10"/>
       <c r="D652" s="10" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="E652" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18300,14 +18298,14 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B653" s="10" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="C653" s="10"/>
       <c r="D653" s="10" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="E653" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18320,14 +18318,14 @@
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B654" s="10" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="C654" s="10"/>
       <c r="D654" s="10" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="E654" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18340,14 +18338,14 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B655" s="10" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="C655" s="10"/>
       <c r="D655" s="10" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="E655" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18360,14 +18358,14 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B656" s="10" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="C656" s="10"/>
       <c r="D656" s="10" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="E656" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18380,14 +18378,14 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B657" s="10" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="C657" s="10"/>
       <c r="D657" s="10" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="E657" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18400,14 +18398,14 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B658" s="10" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="C658" s="10"/>
       <c r="D658" s="10" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="E658" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18420,14 +18418,14 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B659" s="10" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="C659" s="10"/>
       <c r="D659" s="10" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="E659" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18440,14 +18438,14 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B660" s="10" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="C660" s="10"/>
       <c r="D660" s="10" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="E660" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18460,14 +18458,14 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B661" s="10" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="C661" s="10"/>
       <c r="D661" s="10" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="E661" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18480,14 +18478,14 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B662" s="10" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="C662" s="10"/>
       <c r="D662" s="10" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="E662" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18500,14 +18498,14 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B663" s="10" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="C663" s="10"/>
       <c r="D663" s="10" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="E663" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18520,14 +18518,14 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B664" s="10" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="C664" s="10"/>
       <c r="D664" s="10" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="E664" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18540,14 +18538,14 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B665" s="10" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="C665" s="10"/>
       <c r="D665" s="10" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="E665" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18560,14 +18558,14 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B666" s="10" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="C666" s="10"/>
       <c r="D666" s="10" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="E666" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18580,14 +18578,14 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B667" s="10" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="C667" s="10"/>
       <c r="D667" s="10" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="E667" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18600,14 +18598,14 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B668" s="10" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="C668" s="10"/>
       <c r="D668" s="10" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="E668" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18620,14 +18618,14 @@
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B669" s="10" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="C669" s="10"/>
       <c r="D669" s="10" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="E669" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18640,14 +18638,14 @@
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B670" s="10" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="C670" s="10"/>
       <c r="D670" s="10" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="E670" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18660,14 +18658,14 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B671" s="10" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="C671" s="10"/>
       <c r="D671" s="10" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="E671" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18680,14 +18678,14 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B672" s="10" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="C672" s="10"/>
       <c r="D672" s="10" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="E672" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18700,14 +18698,14 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B673" s="10" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="C673" s="10"/>
       <c r="D673" s="10" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="E673" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18720,14 +18718,14 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B674" s="10" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="C674" s="10"/>
       <c r="D674" s="10" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="E674" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18740,14 +18738,14 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B675" s="10" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="C675" s="10"/>
       <c r="D675" s="10" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="E675" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18760,14 +18758,14 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B676" s="10" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="C676" s="10"/>
       <c r="D676" s="10" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="E676" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18780,14 +18778,14 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B677" s="10" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="C677" s="10"/>
       <c r="D677" s="10" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="E677" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18800,14 +18798,14 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B678" s="10" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="C678" s="10"/>
       <c r="D678" s="10" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="E678" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18820,14 +18818,14 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B679" s="10" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="C679" s="10"/>
       <c r="D679" s="10" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="E679" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18840,14 +18838,14 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B680" s="10" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="C680" s="10"/>
       <c r="D680" s="10" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="E680" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18860,14 +18858,14 @@
     </row>
     <row r="681" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A681" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B681" s="10" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="C681" s="10"/>
       <c r="D681" s="10" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="E681" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18880,14 +18878,14 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B682" s="10" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="C682" s="10"/>
       <c r="D682" s="10" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="E682" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18900,14 +18898,14 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B683" s="10" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="C683" s="10"/>
       <c r="D683" s="10" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="E683" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18920,14 +18918,14 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B684" s="10" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="C684" s="10"/>
       <c r="D684" s="10" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="E684" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18940,14 +18938,14 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B685" s="10" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="C685" s="10"/>
       <c r="D685" s="10" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="E685" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18960,14 +18958,14 @@
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B686" s="10" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="C686" s="10"/>
       <c r="D686" s="10" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="E686" s="13" t="str">
         <f t="shared" si="58"/>
@@ -18980,14 +18978,14 @@
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B687" s="10" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="C687" s="10"/>
       <c r="D687" s="10" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="E687" s="13" t="str">
         <f t="shared" si="58"/>
@@ -19000,14 +18998,14 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" s="9" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B688" s="10" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="C688" s="10"/>
       <c r="D688" s="10" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="E688" s="13" t="str">
         <f t="shared" si="58"/>
@@ -19026,10 +19024,10 @@
       <c r="C689" s="10"/>
       <c r="D689" s="10"/>
       <c r="E689" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="F689" s="13" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
     </row>
   </sheetData>
